--- a/story/主线剧情/main/level_st_08-02.xlsx
+++ b/story/主线剧情/main/level_st_08-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="598">
   <si>
     <t>zh_CN</t>
   </si>
@@ -22,6 +22,12 @@
     <t>ja_JP</t>
   </si>
   <si>
+    <t>en_US</t>
+  </si>
+  <si>
+    <t>ko_KR</t>
+  </si>
+  <si>
     <t xml:space="preserve">中央区
 </t>
   </si>
@@ -1207,6 +1213,1194 @@
   </si>
   <si>
     <t xml:space="preserve">「抜刀の技、破るに当たりて即ち破る。」
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central District
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A short while before
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="How are you certain Amiya's group will reach the command tower...", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="...without crossing one of Talulah's elite squads?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] This is the problem with conspirators.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Take a warlord, or a tyrant of a devious king. Their strongholds are always easy to defend, hard to attack.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] They know their own deeds will invite furious retribution without fail. They'll use superior strength and advanced armaments to deploy unyielding defense.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Yet, seeing as Talulah's despotic behavior is confirmed to be some kind of act, she would not do things this way.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="What makes you so confident?;......;I wanna hear your reasoning.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Experience, theory, phenomena.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] I have no confidence. I can only derive the facts.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] ...Truthfully, I'm hoping to see you ever offer your own opinion.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Or maybe you're already content with silence as a brand of opinion?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Then I thank you for your understanding.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] If my thought process was one that won your approval...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Did you think that I would thus feel some kind of happy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Respect is a two-way street. If you value my point of view, and arrive at any useful conclusions, then I in turn will give your point of view serious consideration.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Talulah is maintaining her own image. She needs to have the normal Infected respect her, have the Sarkaz mercenaries obey her, have the guerrillas trust her, have the zealots worship her...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] She needs to have the distance between her and them clearly visible, and have these people able to examine each other.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] According to a series of behavior exhibited by Reunion so far, we can very clearly realize that Reunion's other leaders do not particularly recognize Talulah's conduct at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Even Patriot, seeing through to her scheme, had no power to reverse the tide in the middle of its change. If he could have killed Talulah, all the same, he still would have been unable to alter Reunion tending towards collapse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] To say nothing of the plot to exploit the Infected that Talulah has drawn up inside her own head... The time she would need likely far exceed the time Reunion has existed so far.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] I conjecture that all of Reunion's actions up to now have been premised on a plan. Namely...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] "Reunion will perish after all this is over.” 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Talulah will scatter keen, hidden forces across every part of her territory. When she needs them, she'll assemble them, and have them make their appearance at the right moment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Doctor, I believe the Empire of Ursus's Third Army would not permit any Infected to act freely whatsoever.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] However, Reunion's current conduct is all within the bounds of their tolerance. Superficial violence, lacking discipline and organization. The Third Army must be happy to see it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Think about it carefully. Would they limit themselves to being onlookers? Thus, would they risk truly, willingly letting Talulah control a whole city—even a whole country's state of affairs?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Or perhaps, even this is one of the weights on Talulah's scales, used to swindle the Ursus military out of their power... having them hibernate somewhere, waiting until the situation is just about to move on from her control.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] And then, in the truest sense, she'll be able to use... the power she could never even touch. Just as she wishes.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] But that needs time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Now that you say all that, how is she not a tyrant?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Because while current Reunion wants that in a leader, it doesn't truly need that in a leader.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] A tyrant treasures one's own enablers, even if a tyrant more often than not recklessly destroys them for lack of foresight or composure, and weeps truest, deepest tears for it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] A conspirator does not. The tyrant has chess pieces, and the conspirator does too; but the tyrant is with them on the chessboard, while the conspirator sits outside of it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] We can suppose she has humanity, and thus might make mistakes. But if we're talking about a qualified conspirator with a scheme on the tracks, then even if she herself died, her scheme would continue as a matter of course.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Is our operation useless, then?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] If they were, we'd hardly be taking Rhodes Island's operators to hell and back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] The only thing naturally useless is killing her. So, in every part and every place, we must break down her plot, antagonize her instructions, and lead her scheme to failure.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] If we cannot halt a landship's forward march, then we will tear it to pieces, and make it arrive at its destination no more than an empty carapace.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] ...Ah, maybe I shouldn't have put it to you like that. Don't get me wrong, we still need to stop this Chernobog core city.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Doctor, you've worried about whether or not Amiya's group will run into any incidents...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] I think what's on show before us is the real incident, here.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Herdified Sarkaz Warrior"] W, W. Where W? W stronger.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Herdified Sarkaz Warrior"] Don't, don't enter...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Can you communicate with them?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] (A certain Sarkaz tribe's language)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Herdified Sarkaz Warrior"] Underground full of darkness. Darkness create evil. Evil bring pain.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Herdified Sarkaz Warrior"] Too much, pain.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Herdified Sarkaz Warrior"] Will you, share our pain?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] No luck. Even if they weren't born in Kazdel, they should still have some kind of reaction to a hint of their native language. Their ability to actively think has been damaged.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Could those words you were saying have any effect on them?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] They were meant to in the first place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] No, wait... this wasn't a common-sense idea. Don't get excited.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] But if not even this lets me rouse their conscious, then they've already lost all capacity for thought, beyond simply their ability to express.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] It means their brain's activity has been sealed off, or that their nervous system has been perturbed by the infected organs... either way, we don't have enough time left to ascertain the true answer.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Just based on what facts we have, it's not looking good.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="They don't seem like they'll attack us.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] They're preventing us from entering. Deeply infected Sarkaz mercenaries in this area number around six, and seem to spend most of their time set to an unconscious roam.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Their range of movement doesn't extend outside this passage. These severely Infected collected here only after they picked up on our activity.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Moreover, as long as we don't cross some boundary, they don't do anything further.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Reconnaissance operator. Can you detect our straight-line distance to the Sarcophagus? Determine position via the waveform I provided.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] ...1.4km. Precise figure?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] 1453m.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] ...If my calculations aren't wrong, then the breakout of conflict between Reunion and Sarkaz special Infected happened to be roughly at distance 1.4km from the City Hall too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] We initially planned to enter the Sarcophagus holding from the City Hall basement shelter passage, but as things are, that exit's likely been occupied by Sarkaz special Infected of the same kind.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] I have an unconfirmed conjecture, Doctor...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="What kind of conjecture?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] We don't know what their goal is, but these Sarkaz special Infected are likely preventing anyone else from entering the sarcophagus holding, and by happy coincidence, this district they've controlled measures 1.4km out.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You might be right, but what about their goal, then?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] (Shakes her head)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] At the very least, it's not the same goal these Sarkaz originally had.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Poor Sarkaz, hailing from Kazdel. No matter where, they still become tools.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] I believe there are similarities between the Infected and the Sarkaz's current situations. These Sarkaz here with us could only choose to well with hate, or to lose it all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] ...Things were meant to have changed. We have that power.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Those Teekaz who lost their homeland—have become Sarkaz, rootless as people.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] And now, the Sarkaz before us can barely even be called people.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="How do you want to do things?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] All operators, inspect your hazmat equipment.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] What we're facing may be a Class II Emergency Infective situation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Doctor, in minimizing wear and tear to the utmost, we must halt the special Infected's activity to the utmost.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] ...We haven't stepped in to resolve an Emergency Infective state for a while. This outfit looks entirely like Ursus's Infected Patrol Unit.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Infected Patrol Unit?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] There's something I can't deny—the hazmat equipment we've been provided with is emblematic of Ursus's cruel rule over the Infected... it shares the same prototypical design.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] Though our approach is intrinsically distinct from the Infected Patrol Unit, I can only hope we're able to continue preserving that intrinsic difference—that outside forces don't force us to change beyond recognition.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"] The same hope we hold for so many things. Just like I told you about some time before. I hope you'll hope so too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]   ——————————!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Amiya"]   ————Was—Madame Ch'en here?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Which way was he headed?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shadow Guard"]  West. Stone's throw from the exclusion zone of Glowing Hoof.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...He plotted all of this. It was to ensure the area where we signed the pact was secure. Leithania expanded their contended exclusion zone, overlapping our own.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Shadow Guard"]  We can infiltrate, kill Kashchey and bring back the Miss.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  No. He's already prepared.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...In this meeting, the Twin Empresses directly dispatched the Empresses' Voice, and they weren't short of armed forces.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  The Empresses are fresh upon the throne. If Kashchey intends to blow our diplomacy apart, all our transgressive conduct may very well be the Empresses' excuse to flaunt their power.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  We can't give Kashchey more opportunities to harm Lungmen, or even Yen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"]  Uncle!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Hui-chieh...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"]  Uncle... it's not Tal's fault!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I'm not blaming her.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"]  ...Then you should get mad at me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You haven't done anything wrong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"]  I told her I was gonna go with her. But then I got scared... I... let go of her hand. I didn't go with her...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"]  She looked... really scared. I was really scared, and she was too. I... I did something wrong.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...Hui-chieh, she made the mistake, not you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"]  Huh? B-but you said you wouldn't blame her, Uncle!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  No, I won’t.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"]  But didn't... didn't she do something wrong? If she does something wrong, you're... not gonna get mad at her?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ——
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  She doesn't know the truth. It's not a truth anyone should be privy to, so of course she'd make a mistake. If not now, she would in the future.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  ...In so many cases, the wrong thing shouldn't be punished. Not only do we make mistakes, we'll make so many of them. If there's some mistake, we will make it. We can't dodge that, nor escape it.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Talulah simply made the mistake she was bound to.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"]  Is that still doing something wrong, then?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Yes, of course it is. This world of ours wouldn't forgive something just because it was bound to happen.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  The world is harsh, the people are harsh, the regimes are harsh. Apart from right and wrong, they don't care a damn. As if it's right and wrong keeping them alive, and not what they breathe and swallow...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"] ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"]  I don't get what you're saying, Uncle.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"]  Does... does it mean Tal can still come back?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  —I don't know, Hui-chieh. I don't know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"]  ...*sob*... Is it because of me... Tal won't come back? It's my fault... it's my fault... Tal...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Hui-chieh!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"]  *whimper*...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Wipe your tears away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"]  *sob*... I...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Or cry, then. I'll give you five minutes. After you're done crying, if there's not still tears in your eyes, I'll tell you what you should do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"]  Mm...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"] ...Waaah...! Tal...!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wei Yenwu gazes towards the sky. He considers bending down to comfort the tiny girl, but after hesitating, feels as if he isn’t suited to the task.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  You're done crying, then.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"] ...Mm-hm. I want Tal back. What should I do?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I'll teach you a world of things. I'll teach you how to supervise a city, how to fend off villains, how to treat your friends.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Do as I say, and Talulah will have a chance of coming back.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"] Wh-what do I do? Will Tal be able to come back, really? Are you tricking me, Uncle?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"] ...Mama... Mama said, you only know howta trick people. Can... can I really believe you?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Perhaps.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I've made a massive mistake of my own, and it led to your mother despising me for her whole life. Even on her deathbed, she couldn't have let go. What she told you is understandable.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  But mistakes can be made right.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Hui-chieh, listen carefully. Proper conduct is worth striving your whole life for. Correcting a mistake is worth putting life itself at stake for.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Talulah's departure was a mistake. Every consequence it brings, I will bear.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  And you, Hui-chieh. You'd better grow up fast.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"] What'll it be like when I grow up?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Hmm. When you grow up... you'll be able to change everything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ch'en Hui-chieh"] Really?! 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  Perhaps. Or let's put it this way: so long as you believe, it will be real.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  I'll teach you to wield a sword, Hui-chieh.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Wei Yenwu"]  To wield Chi Xiao.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Unsheathing strike, eradicate without delay.” 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">중앙 구역
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">얼마 전
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="아미야 일행이 사령탑 앞에 있을 거라고 확신하는 근거가 뭐지?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="탈룰라의 정예 부대와 마주치지 않을까?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 이게 바로 음모술수를 부리는 자들의 고충이지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 군벌 또는 포악하고 교활한 군왕으로서 놈들의 요새는 그야말로 난공불락이었다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 자신들의 행동이 핏빛 복수를 일으킬 거라는 걸 그들도 잘 알고 있다. 그래서 막강한 병력과 최첨단 무기를 앞세워 견고한 방어선을 세우려 하겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 하지만 탈룰라의 행동이 관객을 의식한 쇼였다는 게 밝혀진 이상, 상황은 달라질 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="대체 어디서 오는 자신감이지?;……;이유를 듣고 싶군.", values="1;2;3")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 경험, 이론, 그리고 현재 상황.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 자신감 같은 건 없다, 사실을 추론할 뿐이지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] ……솔직히 말해서 네 의견을 듣고 싶다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 아니면 침묵도 하나의 의견이라고 생각하는 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 이해해 줘서 고맙군.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 내 생각에 동의해 준다면……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 내가 기뻐할 거라고 생각한 건가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 존중은 일방통행이 아니다. 내 관점을 존중하고 유익한 결론을 내려준다면, 나도 네 관점을 고려해 보지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 탈룰라는 이미지를 관리하는 중이다. 평범한 감염자들이 자신을 존중해 주고, 살카즈 용병들이 자신에게 복종하기를 바라지. 또 유격대가 자신을 신뢰하고, 광신도들이 자신을 숭배하기를……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 탈룰라는 그들과 분명한 거리를 유지해야 해, 서로를 살필 수 있을 만큼 충분한 거리를……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 리유니온의 행동을 보면 탈룰라에 대해 리유니온의 다른 지휘관들도 잘 모른다는 걸 확실히 알 수 있지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 탈룰라의 음모를 꿰뚫어 본 패트리어트도 급변하는 상황에서 흐름을 되돌릴 순 없었다. 그가 탈룰라를 죽였다고 해도 리유니온의 붕괴를 막진 못했겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 감염자를 이용하려던 탈룰라의 음모는 더더욱…… 탈룰라에겐 시간이 필요할 거다, 지금의 리유니온이 존재했던 것보다 더 긴 시간이……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 지금까지 리유니온의 모든 행동은 하나의 전제로 설계되었을 거라 추측한다……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 리유니온은, 일이 끝나면 소멸될 것이라고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 탈룰라는 날카롭고 은밀한 힘을 대륙 곳곳에 분산 시켜 놨다가 필요할 때, 그것도 가장 적절한 순간에 소집할 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 박사, 우르수스 제국의 제3군단이 감염자가 자유롭게 행동하도록 내버려 둘 리 없다고 생각해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 리유니온의 행동은 그저 그들의 허용 범위에 있었던 것뿐이야. 겉으로 드러나는 폭력, 기강이 무너진 무질서는 제3군단으로서는 환영일 테니까.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 자세히 생각해 봐. 그들이 그저 지켜만 볼까? 그들이 위험을 감수하는 건, 탈룰라가 도시, 나아가 나라 전체를 지배하기를 바라는 마음 때문인 걸까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 그것도 아니면 이 역시 탈룰라의 계략일까? 우르수스군을 속이기 위한 힘으로…… 그들을 어딘가에 잠복시킨 채 상황이 자신의 손아귀를 벗어날 정도로 악화되기를 기다리는 걸까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 그때가 되면 탈룰라는…… 자신이 올려다 볼 수도 없던 힘을 정정당당히 쥘 수 있을 거다. 바라던 그대로.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 하지만 그러려면 시간이 필요해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="그렇게까지 말하면서 아직도 탈룰라가 폭군이 아니라는 건가?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 지금의 리유니온에는 이런 리더가 필요하겠지만, 이런 리더를 진심으로 원하는 건 아니거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 폭군은 자신의 날개를 소중히 여기지. 얄팍한 안목과 제멋대로 구는 성격 탓에 날개를 부러뜨리곤, 진심으로 슬퍼하며 뜨거운 눈물을 흘리기도 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 하지만 권모술수를 부리는 자들은 그렇지 않아. 체스말은 이들 모두에게 쥐어져 있지만 한 가지는 달라. 폭군이 체스말을 쥔 채 체스판 안에 서 있다면 권모술수를 부리는 자들은 그 밖에서 구경하지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 탈룰라에게 인간다움이 남았다면 분명 실수를 저지르겠지. 하지만 권모술수를 제대로 부릴 줄 안다면, 자신이 죽더라도 한 번 궤도에 오른 음모는 멈추지 않을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="우리가 쓸데없는 짓을 한 건가?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 아마 그랬다면 로도스 아일랜드의 용병들을 데리고 사지에 뛰어들진 않았을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 그저 해치우는 것만으로는 부족해. 여러 상황, 여러 곳에서 탈룰라의 음모를 와해하고, 탈룰라의 명령에 맞서 그 음모를 무력화시켜야 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 앞으로 나아가는 함선을 멈춰 세울 수 없다면 목적지에 도착했을 때 빈 껍데기만 남도록 산산이 조각내야 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 아…… 이렇게 말하면 오해할 수도 있겠군. 우린 체르노보그 코어를 멈춰야 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 박사, 아미야 일행이 돌발사태에 휘말릴까 걱정했었지……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 지금 우리 앞에 놓인 상황이야말로 진짜 돌발사태라고 생각한다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="가축화 된 살카즈 전사"] W, W. W는 어디 있지? W가 더 강해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="가축화 된 살카즈 전사"] 들어, 가지 마……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="저들과 교류할 수 있겠나?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] (살카즈 어느 부족의 언어)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="가축화 된 살카즈 전사"] 땅밑에 어둠이 가득하니, 어둠은 악을 불러오고, 악은 고통을 가져온다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="가축화 된 살카즈 전사"] 고통…… 너무 고통스럽다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="가축화 된 살카즈 전사"] 우리의 고통을 함께 나눠줄 텐가?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 소용없어. 카즈델 출신이 아니라고 해도 모국어나 비슷한 말에는 반응해야 하는데, 사고 능력이 망가진 모양이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="네 말이 영향을 줄 수 있을까?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 원래대로라면 그랬겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 잠깐…… 이건 일반적인 방법이 아니니까 궁금해할 것 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 이 방법으로도 그들의 의식을 깨울 수 없다면 그들은 단순히 표현력을 잃은 게 아니라 사고할 능력 자체를 잃어버린 걸 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 놈들의 뇌 활동이 멈춰버린 걸까, 아니면 신경계가 감염 기관 때문에 교란을 일으킨 걸까?…… 그 답을 알아내기엔 우리에게 남은 시간이 많지 않아.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 사실에 근거해 판단한 것뿐이다, 십중팔구 좋을 것 같지는 않지만.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="우리를 공격하려는 것 같진 않은데……", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 놈들은 우리의 진입을 막고 있어. 이 구역에서 고도로 감염된 살카즈 용병들은 대략 여섯 명인데 무의식적으로 돌아다니는 데 대부분의 시간을 쓰고 있지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 놈들의 활동 반경은 여기까지야. 지금 여기에 몰려든 건 우리의 행동을 의식한 거겠지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 그리고, 우리가 경계선만 넘지 않는다면 녀석들도 더 이상 행동하지 않을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 정찰 오퍼레이터, 우리와 석관 사이의 선형 거리를 측정할 수 있겠나? 내가 보낸 파형으로 위치를 판단해봐.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] ……1.4킬로미터. 정확한 숫자는?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 1453미터.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] ……내 계산이 맞다면 리유니온과 살카즈 특수 감염자가 충돌한 위치에서 시청까지의 거리도 마침 1.4킬로미터였어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 시청 아래 피난 통로에서 석관 구역으로 진입할 계획이었지만, 지금 그 출구는 살카즈 특수 감염자에게 점거되었을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 박사, 내게 검증되지 않은 가설이 있는데……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="자세히 말해 봐.", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 이유는 모르겠지만 살카즈 특수 감염자들은 다른 사람이 석관 구역에 들어가지 못하게 막고 있어. 통제 구역의 크기 역시 1.4킬로미터이기도 하고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="일리가 있는 지적이야. 하지만 목적은?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] (고개를 젓는다)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 적어도 살카즈들의 본래 목적은 아닐거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 카즈델 출신의 가엾은 살카즈인들은 어디서든 도구 취급을 받게 될 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 지금 감염자들의 처지도 살카즈와 크게 다르지 않다고 생각한다. 살카즈들은 증오에 잠식된 삶과 모든 것을 잃게 되는 삶 둘 중 하나를 선택할 수밖에 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 원래대로라면 상황이 바뀌었어야 했는데…… 우린 바꿀 수 있을 거야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 터전을 잃은 티카즈는 뿌리가 없는 살카즈로 변해 버렸지.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 이제 우리 앞에 있는 살카즈들은 인간이라고 할 수도 없게 되었어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="그래서…… 이제 어쩔 셈이지?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 오퍼레이터들은 자신의 방화 장비를 점검해라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 우린 지금 2급 긴급 감염 사태에 직면했을지도 모른다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 박사, 손실을 최대한 줄이면서 특수 감염자의 움직임을 최대한 막아야 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 긴급 감염 사태를 해결하는 데 투입된 것도 무척 오랜만이로군…… 이러니까 꼭 우르수스의 감염자 감시팀 같네.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="감염자 감시팀?", values="1")]
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 우리가 장착한 방화 장비와 감염자에 대한 우르수스의 잔혹한 통치를 상징하는 게…… 하나의 뿌리에서 비롯됐다는 사실은 나도 부정할 수 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 우리의 행동은 감염자 감시팀과는 본질적으로 다르지만 그런 차이를 계속해서 유지하기를 진심으로 바란다. 이런저런 외력에 의해 알아볼 수도 없을 만큼 바뀌는 게 아니라……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="켈시"] 많은 일에 대한 우리의 기대 또한 이러하다. 얼마 전에 네게 이야기한 것처럼…… 너도 그러길 바란다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"]   …………!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="아미야"]   ……이건, 첸 팀장님?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  어느 방향으로 갔지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="그림자 부대"]  서쪽입니다, 글로잉훕 시티의 봉쇄 구역에 곧 도착합니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  ……모든 게 놈의 계획대로군. 협약 체결 구역의 보안 상황을 확인하기 위해 라이타니아는 우리의 봉쇄 구역과 겹치게 충돌 금지 구역을 확장한 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="그림자 부대"]  저희라면 은밀히 잠입해서 카셰이를 죽이고 아가씨를 구해올 수 있습니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  아니, 놈은 미리 대비했을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  ……이번 만남엔 쌍둥이 여황이 '여황의 목소리'를 직접 보냈다. 수행하는 무장 세력도 적지 않았고.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  여황은 즉위한 지 얼마 되지 않았다. 카셰이가 의도적으로 외교 갈등을 일으킨다면, 우리가 저지른 모든 불법 행위는 여황이 권위를 과시할 좋은 핑계가 될 뿐이다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  카셰이가 용문에, 아니… 더 나아가 염국에까지 더 큰 피해를 입힐 기회를 줘서는 안 돼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"]  외삼촌!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  훼이지에……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"]  외삼촌…… 탈루 탓이 아니야!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  그렇게 말한 적은 없는 것 같은데.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"]  ……그럼 날 혼내줘.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  잘못한 것도 없이 말이냐?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"]  같이 가기로 탈루랑 약속했는데 너무 무서워서…… 내가…… 내가 손을 놔버렸어. 그래서 같이 가지 못한 건데……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"]  탈루는 무서운 눈을 하고 있었어. 나도 무서웠고, 탈루도 무서웠던 거야. 다…… 내 잘못이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  ……훼이지에, 이건 탈룰라의 잘못이지 네 잘못이 아니다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"]  어? 그, 그치만 외삼촌은 탈루 탓 안 하겠다 했잖아!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  그래, 탓하지 않을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"]  하지만 탈루…… 탈루는 잘못을 저질렀잖아? 잘못했는데…… 혼나지 않아도 되는 걸까?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  탈룰라는 진실을 모른다. 그 진실은 누구도 알아서 안 돼, 그러니까 저지를 게 분명해. 지금은 아니더라도 나중에는 분명……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  ……잘못을 저질러도 혼나지 않는 경우도 많지. 우리는 잘못, 그것도 많은 잘못을 저지르곤 하는데 어떤 잘못은 숨길 수도, 피할 수도 없어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  탈룰라는 자신이 저지를 수밖에 없는 잘못을 저지른 것뿐이야.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"]  그런 것도 잘못이라고 하는 거야?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  그래, 그것도 잘못이지. 이 세상은 무슨 일이 발생한다고 해서 그걸 너그럽게 받아들이지 않거든.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  무자비한 땅, 무자비한 사람들과 무자비한 통치…… 그들이 신경 쓰는 건 옳고 그름뿐이야. 숨 쉬고 삼키는 게 생명이 아니라 옳고 그름이 생명이라도 되는 것처럼.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"] ……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"]  뭔 소린지 잘 모르겠어, 외삼촌.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"]  그래서…… 탈루는 다시 돌아올 수 있어?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  글쎄다…… 훼이지에, 나도 잘 모르겠구나.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"]  ……흐흑…… 그럼 탈루는 나 때문에…… 못 돌아오는 거야? 내 탓이야…… 나 때문에…… 탈루가……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  훼이지에!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"]  흐윽……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  눈물을 닦아라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"]  흐흑, 하지만……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  아니면, 울어라. 5분 주마. 다 울어서 더는 눈물이 흐르지 않으면, 그때 네가 어떻게 해야 하는지 알려주마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"]  흐흑……
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"] ……으아아앙……! 탈루……!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">웨이 옌우는 하늘을 올려다보곤, 다시 몸을 숙여 왜소한 여자아이를 위로할까 하다가 잠시 머뭇거렸다. 그는 그런 행동이 자신에게 어울리지 않는다고 생각했다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  이제 울지 않는구나.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"] 응…… 난 탈루가 돌아왔으면 좋겠어. 어떻게 해야 돼?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  내가 가르쳐주마. 도시를 어떻게 경영하고 악당에게는 어떻게 맞서야 하는지, 그리고 친구를 어떻게 대하는지도 모두 알려주마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  내 말대로 하면, 탈룰라가 돌아올지도 모른다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"] 어, 어떻게 해야 하는데? 탈루 정말 돌아와? 외삼촌 거짓말 아니지?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"] ……엄마…… 엄마가, 외삼촌은 거짓말만 한다고 했는걸. 나…… 정말 믿어도 돼?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  아마도.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  나도 큰 실수를 저질렀지. 그 때문에 죽을 때까지 날 원망한 만큼 네 엄마는 날 미워했단다. 그럴 만도 해.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  하지만 잘못은 되돌릴 수 있어.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  잘 들어라, 훼이지에. 올바르게 행동하는 건 네가 평생 노력할 만한 일이지, 그리고 잘못을 바로잡는 건 네 목숨을 걸 만한 일이란다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  탈룰라가 떠난 건 잘못이다. 잘못이 가져올 모든 결과는 내가 책임지마.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  그러니 훼이지에…… 어서 크거라.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"] 다 크면 어떻게 되는데?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  너라면, 다 큰 너라면…… 모든 것을 바꿀 수 있을 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="첸 훼이지에"] 정말?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  아마도. 아니…… 네가 믿는 한은 정말로 그렇게 될 거다.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  내가 검술을 가르쳐주마, 훼이지에.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="웨이 옌우"]  적소의 검술을.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"발도의 기술, 부숴야 할 땐 부숴야 하느니."
 </t>
   </si>
 </sst>
@@ -1565,1218 +2759,2124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" t="s">
+        <v>304</v>
+      </c>
+      <c r="D5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>309</v>
+      </c>
+      <c r="D10" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
+        <v>310</v>
+      </c>
+      <c r="D11" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D12" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" t="s">
+        <v>312</v>
+      </c>
+      <c r="D13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" t="s">
+        <v>313</v>
+      </c>
+      <c r="D14" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D15" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D16" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" t="s">
+        <v>316</v>
+      </c>
+      <c r="D17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D18" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D20" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" t="s">
+        <v>320</v>
+      </c>
+      <c r="D21" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>173</v>
+      </c>
+      <c r="C22" t="s">
+        <v>321</v>
+      </c>
+      <c r="D22" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>174</v>
+      </c>
+      <c r="C23" t="s">
+        <v>322</v>
+      </c>
+      <c r="D23" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" t="s">
+        <v>323</v>
+      </c>
+      <c r="D24" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" t="s">
+        <v>325</v>
+      </c>
+      <c r="D26" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" t="s">
+        <v>326</v>
+      </c>
+      <c r="D27" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" t="s">
+        <v>327</v>
+      </c>
+      <c r="D28" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" t="s">
+        <v>180</v>
+      </c>
+      <c r="C29" t="s">
+        <v>328</v>
+      </c>
+      <c r="D29" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C30" t="s">
+        <v>329</v>
+      </c>
+      <c r="D30" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>182</v>
+      </c>
+      <c r="C31" t="s">
+        <v>330</v>
+      </c>
+      <c r="D31" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" t="s">
+        <v>183</v>
+      </c>
+      <c r="C32" t="s">
+        <v>331</v>
+      </c>
+      <c r="D32" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" t="s">
+        <v>332</v>
+      </c>
+      <c r="D33" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" t="s">
+        <v>333</v>
+      </c>
+      <c r="D34" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" t="s">
+        <v>186</v>
+      </c>
+      <c r="C35" t="s">
+        <v>334</v>
+      </c>
+      <c r="D35" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>187</v>
+      </c>
+      <c r="C36" t="s">
+        <v>335</v>
+      </c>
+      <c r="D36" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" t="s">
+        <v>336</v>
+      </c>
+      <c r="D37" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C38" t="s">
+        <v>337</v>
+      </c>
+      <c r="D38" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" t="s">
+        <v>338</v>
+      </c>
+      <c r="D39" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" t="s">
+        <v>339</v>
+      </c>
+      <c r="D40" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" t="s">
+        <v>340</v>
+      </c>
+      <c r="D41" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>193</v>
+      </c>
+      <c r="C42" t="s">
+        <v>341</v>
+      </c>
+      <c r="D42" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" t="s">
+        <v>342</v>
+      </c>
+      <c r="D43" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>195</v>
+      </c>
+      <c r="C44" t="s">
+        <v>343</v>
+      </c>
+      <c r="D44" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" t="s">
+        <v>196</v>
+      </c>
+      <c r="C45" t="s">
+        <v>344</v>
+      </c>
+      <c r="D45" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" t="s">
+        <v>345</v>
+      </c>
+      <c r="D46" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" t="s">
+        <v>198</v>
+      </c>
+      <c r="C47" t="s">
+        <v>346</v>
+      </c>
+      <c r="D47" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" t="s">
+        <v>199</v>
+      </c>
+      <c r="C48" t="s">
+        <v>347</v>
+      </c>
+      <c r="D48" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s">
+        <v>200</v>
+      </c>
+      <c r="C49" t="s">
+        <v>348</v>
+      </c>
+      <c r="D49" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" t="s">
+        <v>349</v>
+      </c>
+      <c r="D50" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" t="s">
+        <v>347</v>
+      </c>
+      <c r="D51" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" t="s">
+        <v>350</v>
+      </c>
+      <c r="D52" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>203</v>
+      </c>
+      <c r="C53" t="s">
+        <v>351</v>
+      </c>
+      <c r="D53" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" t="s">
+        <v>352</v>
+      </c>
+      <c r="D54" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>205</v>
+      </c>
+      <c r="C55" t="s">
+        <v>353</v>
+      </c>
+      <c r="D55" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" t="s">
+        <v>354</v>
+      </c>
+      <c r="D56" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="s">
+        <v>207</v>
+      </c>
+      <c r="C57" t="s">
+        <v>355</v>
+      </c>
+      <c r="D57" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="s">
+        <v>208</v>
+      </c>
+      <c r="C58" t="s">
+        <v>356</v>
+      </c>
+      <c r="D58" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>209</v>
+      </c>
+      <c r="C59" t="s">
+        <v>357</v>
+      </c>
+      <c r="D59" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" t="s">
+        <v>358</v>
+      </c>
+      <c r="D60" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="s">
+        <v>211</v>
+      </c>
+      <c r="C61" t="s">
+        <v>359</v>
+      </c>
+      <c r="D61" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="s">
+        <v>212</v>
+      </c>
+      <c r="C62" t="s">
+        <v>360</v>
+      </c>
+      <c r="D62" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>213</v>
+      </c>
+      <c r="C63" t="s">
+        <v>361</v>
+      </c>
+      <c r="D63" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>214</v>
+      </c>
+      <c r="C64" t="s">
+        <v>362</v>
+      </c>
+      <c r="D64" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>215</v>
+      </c>
+      <c r="C65" t="s">
+        <v>363</v>
+      </c>
+      <c r="D65" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66" t="s">
+        <v>364</v>
+      </c>
+      <c r="D66" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" t="s">
+        <v>365</v>
+      </c>
+      <c r="D67" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" t="s">
+        <v>366</v>
+      </c>
+      <c r="D68" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="s">
+        <v>219</v>
+      </c>
+      <c r="C69" t="s">
+        <v>367</v>
+      </c>
+      <c r="D69" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="s">
+        <v>220</v>
+      </c>
+      <c r="C70" t="s">
+        <v>368</v>
+      </c>
+      <c r="D70" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="s">
+        <v>221</v>
+      </c>
+      <c r="C71" t="s">
+        <v>369</v>
+      </c>
+      <c r="D71" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="s">
+        <v>222</v>
+      </c>
+      <c r="C72" t="s">
+        <v>370</v>
+      </c>
+      <c r="D72" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="s">
+        <v>223</v>
+      </c>
+      <c r="C73" t="s">
+        <v>371</v>
+      </c>
+      <c r="D73" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74" t="s">
+        <v>372</v>
+      </c>
+      <c r="D74" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="s">
+        <v>225</v>
+      </c>
+      <c r="C75" t="s">
+        <v>373</v>
+      </c>
+      <c r="D75" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="s">
+        <v>226</v>
+      </c>
+      <c r="C76" t="s">
+        <v>374</v>
+      </c>
+      <c r="D76" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="s">
+        <v>227</v>
+      </c>
+      <c r="C77" t="s">
+        <v>375</v>
+      </c>
+      <c r="D77" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="s">
+        <v>228</v>
+      </c>
+      <c r="C78" t="s">
+        <v>376</v>
+      </c>
+      <c r="D78" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" t="s">
+        <v>377</v>
+      </c>
+      <c r="D79" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="s">
+        <v>230</v>
+      </c>
+      <c r="C80" t="s">
+        <v>378</v>
+      </c>
+      <c r="D80" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="s">
+        <v>231</v>
+      </c>
+      <c r="C81" t="s">
+        <v>379</v>
+      </c>
+      <c r="D81" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" t="s">
+        <v>380</v>
+      </c>
+      <c r="D82" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="s">
+        <v>233</v>
+      </c>
+      <c r="C83" t="s">
+        <v>381</v>
+      </c>
+      <c r="D83" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" t="s">
+        <v>382</v>
+      </c>
+      <c r="D84" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="s">
+        <v>235</v>
+      </c>
+      <c r="C85" t="s">
+        <v>383</v>
+      </c>
+      <c r="D85" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="s">
+        <v>236</v>
+      </c>
+      <c r="C86" t="s">
+        <v>384</v>
+      </c>
+      <c r="D86" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="s">
+        <v>237</v>
+      </c>
+      <c r="C87" t="s">
+        <v>385</v>
+      </c>
+      <c r="D87" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="s">
+        <v>238</v>
+      </c>
+      <c r="C88" t="s">
+        <v>386</v>
+      </c>
+      <c r="D88" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="s">
+        <v>239</v>
+      </c>
+      <c r="C89" t="s">
+        <v>387</v>
+      </c>
+      <c r="D89" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="s">
+        <v>240</v>
+      </c>
+      <c r="C90" t="s">
+        <v>388</v>
+      </c>
+      <c r="D90" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="s">
+        <v>241</v>
+      </c>
+      <c r="C91" t="s">
+        <v>389</v>
+      </c>
+      <c r="D91" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="s">
+        <v>242</v>
+      </c>
+      <c r="C92" t="s">
+        <v>390</v>
+      </c>
+      <c r="D92" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="s">
+        <v>243</v>
+      </c>
+      <c r="C93" t="s">
+        <v>391</v>
+      </c>
+      <c r="D93" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="s">
+        <v>244</v>
+      </c>
+      <c r="C94" t="s">
+        <v>392</v>
+      </c>
+      <c r="D94" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="s">
+        <v>245</v>
+      </c>
+      <c r="C95" t="s">
+        <v>393</v>
+      </c>
+      <c r="D95" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="s">
+        <v>246</v>
+      </c>
+      <c r="C96" t="s">
+        <v>394</v>
+      </c>
+      <c r="D96" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="s">
+        <v>247</v>
+      </c>
+      <c r="C97" t="s">
+        <v>395</v>
+      </c>
+      <c r="D97" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="s">
+        <v>248</v>
+      </c>
+      <c r="C98" t="s">
+        <v>396</v>
+      </c>
+      <c r="D98" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>249</v>
+      </c>
+      <c r="C99" t="s">
+        <v>397</v>
+      </c>
+      <c r="D99" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="s">
+        <v>250</v>
+      </c>
+      <c r="C100" t="s">
+        <v>398</v>
+      </c>
+      <c r="D100" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>251</v>
+      </c>
+      <c r="C101" t="s">
+        <v>399</v>
+      </c>
+      <c r="D101" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C102" t="s">
+        <v>400</v>
+      </c>
+      <c r="D102" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="s">
+        <v>253</v>
+      </c>
+      <c r="C103" t="s">
+        <v>401</v>
+      </c>
+      <c r="D103" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="s">
+        <v>254</v>
+      </c>
+      <c r="C104" t="s">
+        <v>402</v>
+      </c>
+      <c r="D104" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="s">
+        <v>255</v>
+      </c>
+      <c r="C105" t="s">
+        <v>403</v>
+      </c>
+      <c r="D105" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="s">
+        <v>256</v>
+      </c>
+      <c r="C106" t="s">
+        <v>404</v>
+      </c>
+      <c r="D106" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="s">
+        <v>257</v>
+      </c>
+      <c r="C107" t="s">
+        <v>405</v>
+      </c>
+      <c r="D107" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="s">
+        <v>258</v>
+      </c>
+      <c r="C108" t="s">
+        <v>406</v>
+      </c>
+      <c r="D108" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="s">
+        <v>259</v>
+      </c>
+      <c r="C109" t="s">
+        <v>407</v>
+      </c>
+      <c r="D109" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="s">
+        <v>260</v>
+      </c>
+      <c r="C110" t="s">
+        <v>408</v>
+      </c>
+      <c r="D110" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="s">
+        <v>261</v>
+      </c>
+      <c r="C111" t="s">
+        <v>409</v>
+      </c>
+      <c r="D111" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="s">
+        <v>262</v>
+      </c>
+      <c r="C112" t="s">
+        <v>410</v>
+      </c>
+      <c r="D112" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="s">
+        <v>251</v>
+      </c>
+      <c r="C113" t="s">
+        <v>411</v>
+      </c>
+      <c r="D113" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="s">
+        <v>263</v>
+      </c>
+      <c r="C114" t="s">
+        <v>412</v>
+      </c>
+      <c r="D114" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="s">
+        <v>264</v>
+      </c>
+      <c r="C115" t="s">
+        <v>413</v>
+      </c>
+      <c r="D115" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="s">
+        <v>265</v>
+      </c>
+      <c r="C116" t="s">
+        <v>414</v>
+      </c>
+      <c r="D116" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>266</v>
+      </c>
+      <c r="C117" t="s">
+        <v>415</v>
+      </c>
+      <c r="D117" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="s">
+        <v>267</v>
+      </c>
+      <c r="C118" t="s">
+        <v>416</v>
+      </c>
+      <c r="D118" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="s">
+        <v>268</v>
+      </c>
+      <c r="C119" t="s">
+        <v>417</v>
+      </c>
+      <c r="D119" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="s">
+        <v>269</v>
+      </c>
+      <c r="C120" t="s">
+        <v>418</v>
+      </c>
+      <c r="D120" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="s">
+        <v>270</v>
+      </c>
+      <c r="C121" t="s">
+        <v>419</v>
+      </c>
+      <c r="D121" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" t="s">
+        <v>420</v>
+      </c>
+      <c r="D122" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="s">
+        <v>272</v>
+      </c>
+      <c r="C123" t="s">
+        <v>421</v>
+      </c>
+      <c r="D123" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="s">
+        <v>273</v>
+      </c>
+      <c r="C124" t="s">
+        <v>422</v>
+      </c>
+      <c r="D124" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="s">
+        <v>274</v>
+      </c>
+      <c r="C125" t="s">
+        <v>423</v>
+      </c>
+      <c r="D125" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="s">
+        <v>275</v>
+      </c>
+      <c r="C126" t="s">
+        <v>424</v>
+      </c>
+      <c r="D126" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="s">
+        <v>276</v>
+      </c>
+      <c r="C127" t="s">
+        <v>425</v>
+      </c>
+      <c r="D127" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="s">
+        <v>277</v>
+      </c>
+      <c r="C128" t="s">
+        <v>426</v>
+      </c>
+      <c r="D128" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="s">
+        <v>278</v>
+      </c>
+      <c r="C129" t="s">
+        <v>427</v>
+      </c>
+      <c r="D129" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="s">
+        <v>279</v>
+      </c>
+      <c r="C130" t="s">
+        <v>428</v>
+      </c>
+      <c r="D130" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="s">
+        <v>280</v>
+      </c>
+      <c r="C131" t="s">
+        <v>429</v>
+      </c>
+      <c r="D131" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="s">
+        <v>281</v>
+      </c>
+      <c r="C132" t="s">
+        <v>430</v>
+      </c>
+      <c r="D132" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="s">
+        <v>282</v>
+      </c>
+      <c r="C133" t="s">
+        <v>431</v>
+      </c>
+      <c r="D133" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="s">
+        <v>283</v>
+      </c>
+      <c r="C134" t="s">
+        <v>432</v>
+      </c>
+      <c r="D134" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="s">
+        <v>284</v>
+      </c>
+      <c r="C135" t="s">
+        <v>433</v>
+      </c>
+      <c r="D135" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="s">
+        <v>285</v>
+      </c>
+      <c r="C136" t="s">
+        <v>434</v>
+      </c>
+      <c r="D136" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="s">
+        <v>286</v>
+      </c>
+      <c r="C137" t="s">
+        <v>435</v>
+      </c>
+      <c r="D137" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" t="s">
+        <v>287</v>
+      </c>
+      <c r="C138" t="s">
+        <v>436</v>
+      </c>
+      <c r="D138" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="s">
+        <v>288</v>
+      </c>
+      <c r="C139" t="s">
+        <v>437</v>
+      </c>
+      <c r="D139" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s">
+        <v>289</v>
+      </c>
+      <c r="C140" t="s">
+        <v>438</v>
+      </c>
+      <c r="D140" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" t="s">
+        <v>290</v>
+      </c>
+      <c r="C141" t="s">
+        <v>439</v>
+      </c>
+      <c r="D141" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" t="s">
+        <v>291</v>
+      </c>
+      <c r="C142" t="s">
+        <v>440</v>
+      </c>
+      <c r="D142" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" t="s">
+        <v>292</v>
+      </c>
+      <c r="C143" t="s">
+        <v>441</v>
+      </c>
+      <c r="D143" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" t="s">
+        <v>293</v>
+      </c>
+      <c r="C144" t="s">
+        <v>442</v>
+      </c>
+      <c r="D144" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" t="s">
+        <v>294</v>
+      </c>
+      <c r="C145" t="s">
+        <v>443</v>
+      </c>
+      <c r="D145" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" t="s">
+        <v>295</v>
+      </c>
+      <c r="C146" t="s">
+        <v>444</v>
+      </c>
+      <c r="D146" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" t="s">
+        <v>296</v>
+      </c>
+      <c r="C147" t="s">
+        <v>445</v>
+      </c>
+      <c r="D147" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="s">
+        <v>297</v>
+      </c>
+      <c r="C148" t="s">
+        <v>446</v>
+      </c>
+      <c r="D148" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" t="s">
+        <v>298</v>
+      </c>
+      <c r="C149" t="s">
+        <v>447</v>
+      </c>
+      <c r="D149" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B150" t="s">
+        <v>299</v>
+      </c>
+      <c r="C150" t="s">
+        <v>448</v>
+      </c>
+      <c r="D150" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>41</v>
-      </c>
-      <c r="B41" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>43</v>
-      </c>
-      <c r="B43" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>46</v>
-      </c>
-      <c r="B46" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>50</v>
-      </c>
-      <c r="B50" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-      <c r="B117" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-      <c r="B121" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>128</v>
-      </c>
-      <c r="B129" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>130</v>
-      </c>
-      <c r="B131" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>133</v>
-      </c>
-      <c r="B134" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>135</v>
-      </c>
-      <c r="B136" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>138</v>
-      </c>
-      <c r="B139" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>139</v>
-      </c>
-      <c r="B140" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>140</v>
-      </c>
-      <c r="B141" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>141</v>
-      </c>
-      <c r="B142" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>142</v>
-      </c>
-      <c r="B143" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>144</v>
-      </c>
-      <c r="B145" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>145</v>
-      </c>
-      <c r="B146" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>147</v>
-      </c>
-      <c r="B148" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>148</v>
-      </c>
-      <c r="B149" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>149</v>
-      </c>
-      <c r="B150" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>150</v>
-      </c>
       <c r="B151" t="s">
-        <v>298</v>
+        <v>300</v>
+      </c>
+      <c r="C151" t="s">
+        <v>449</v>
+      </c>
+      <c r="D151" t="s">
+        <v>597</v>
       </c>
     </row>
   </sheetData>
